--- a/data/trans_orig/P25F_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5D87D5C-BAB1-4F51-BC34-C3088E0D44DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4025C564-3A00-4BAA-9CF7-465D08361075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8097B5E-0A73-4ECF-A1D2-584B43FA4CCA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C15C3326-3D58-4C1F-B6AE-0C81CDC90B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="260">
   <si>
     <t>Población según el modo de empleo para el que utilizan los cigarrillos electrónicos en 2023 (Tasa respuesta: 1,51%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>61,34%</t>
+    <t>69,59%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>12,62%</t>
   </si>
   <si>
-    <t>55,88%</t>
+    <t>61,31%</t>
   </si>
   <si>
     <t>Por probar</t>
@@ -98,19 +98,19 @@
     <t>57,18%</t>
   </si>
   <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>91,03%</t>
   </si>
   <si>
     <t>Para reducir el consumo del tabaco tradicional</t>
@@ -119,16 +119,16 @@
     <t>28,86%</t>
   </si>
   <si>
-    <t>77,54%</t>
+    <t>77,25%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
   </si>
   <si>
     <t>Para dejar de fumar</t>
@@ -155,7 +155,7 @@
     <t>9,61%</t>
   </si>
   <si>
-    <t>39,49%</t>
+    <t>40,04%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -167,22 +167,22 @@
     <t>12,08%</t>
   </si>
   <si>
-    <t>63,84%</t>
+    <t>63,5%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>15,66%</t>
+    <t>12,46%</t>
   </si>
   <si>
     <t>67,39%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -191,55 +191,55 @@
     <t>55,41%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>49,94%</t>
+    <t>46,95%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>42,41%</t>
+    <t>41,73%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>55,03%</t>
+    <t>65,52%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>47,8%</t>
+    <t>52,45%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>33,55%</t>
+    <t>28,54%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>36,16%</t>
+    <t>36,5%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -257,7 +257,7 @@
     <t>8,62%</t>
   </si>
   <si>
-    <t>52,0%</t>
+    <t>50,46%</t>
   </si>
   <si>
     <t>43,35%</t>
@@ -266,7 +266,7 @@
     <t>29,11%</t>
   </si>
   <si>
-    <t>74,0%</t>
+    <t>69,36%</t>
   </si>
   <si>
     <t>56,65%</t>
@@ -278,10 +278,10 @@
     <t>62,27%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -299,7 +299,7 @@
     <t>51,11%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>9,75%</t>
   </si>
   <si>
     <t>91,09%</t>
@@ -308,34 +308,34 @@
     <t>51,4%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>76,12%</t>
+    <t>71,34%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>56,13%</t>
+    <t>48,82%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>54,28%</t>
+    <t>52,15%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>30,12%</t>
+    <t>33,93%</t>
   </si>
   <si>
     <t>48,1%</t>
@@ -344,16 +344,16 @@
     <t>20,48%</t>
   </si>
   <si>
-    <t>75,97%</t>
+    <t>78,97%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -362,13 +362,13 @@
     <t>14,03%</t>
   </si>
   <si>
-    <t>59,57%</t>
+    <t>59,96%</t>
   </si>
   <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>54,41%</t>
+    <t>45,44%</t>
   </si>
   <si>
     <t>49,54%</t>
@@ -377,49 +377,46 @@
     <t>47,52%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>53,37%</t>
+    <t>57,57%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>47,61%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>64,08%</t>
+    <t>71,47%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -434,7 +431,7 @@
     <t>35,4%</t>
   </si>
   <si>
-    <t>88,06%</t>
+    <t>94,58%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -446,7 +443,7 @@
     <t>64,6%</t>
   </si>
   <si>
-    <t>11,94%</t>
+    <t>5,42%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -455,127 +452,127 @@
     <t>9,5%</t>
   </si>
   <si>
-    <t>31,24%</t>
+    <t>32,17%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>62,14%</t>
+    <t>61,38%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>54,32%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
   </si>
   <si>
     <t>41,71%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
   </si>
   <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>24,55%</t>
+    <t>25,48%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -593,235 +590,229 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>50,74%</t>
+    <t>51,34%</t>
   </si>
   <si>
     <t>19,47%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>39,08%</t>
+    <t>38,33%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>23,05%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D259E733-3123-482C-B46E-85C2D08F1B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48FAD53-E3F8-4BE2-86B7-AC39D3C2AB8B}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2796,7 +2787,7 @@
         <v>762</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
@@ -2811,13 +2802,13 @@
         <v>854</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2826,13 +2817,13 @@
         <v>1616</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,7 +2879,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2906,7 +2897,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2957,7 +2948,7 @@
         <v>14</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2966,7 +2957,7 @@
         <v>1352</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
@@ -2981,13 +2972,13 @@
         <v>1352</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,7 +2999,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3059,7 +3050,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3107,7 +3098,7 @@
         <v>35</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>37</v>
@@ -3119,7 +3110,7 @@
         <v>1603</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
@@ -3134,10 +3125,10 @@
         <v>2466</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>35</v>
@@ -3196,7 +3187,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3208,13 +3199,13 @@
         <v>2443</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -3223,13 +3214,13 @@
         <v>3857</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -3238,13 +3229,13 @@
         <v>6300</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3250,13 @@
         <v>13974</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -3274,13 +3265,13 @@
         <v>4931</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
@@ -3289,13 +3280,13 @@
         <v>18905</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3301,13 @@
         <v>2515</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3325,13 +3316,13 @@
         <v>3072</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
@@ -3340,13 +3331,13 @@
         <v>5587</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3352,13 @@
         <v>1272</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -3376,13 +3367,13 @@
         <v>3612</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -3391,13 +3382,13 @@
         <v>4884</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3403,13 @@
         <v>5522</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3427,13 +3418,13 @@
         <v>4128</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -3442,13 +3433,13 @@
         <v>9650</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3495,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3522,37 +3513,37 @@
         <v>14</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" s="7" t="s">
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3558,13 @@
         <v>5084</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3582,13 +3573,13 @@
         <v>3087</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
@@ -3597,13 +3588,13 @@
         <v>8171</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3609,13 @@
         <v>6506</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H48" s="7">
         <v>9</v>
@@ -3633,13 +3624,13 @@
         <v>8162</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M48" s="7">
         <v>14</v>
@@ -3648,13 +3639,13 @@
         <v>14668</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3660,13 @@
         <v>3152</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -3684,13 +3675,13 @@
         <v>3436</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M49" s="7">
         <v>6</v>
@@ -3699,13 +3690,13 @@
         <v>6589</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3711,13 @@
         <v>7658</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -3735,13 +3726,13 @@
         <v>4874</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="M50" s="7">
         <v>12</v>
@@ -3750,13 +3741,13 @@
         <v>12532</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3815,13 @@
         <v>3639</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H52" s="7">
         <v>4</v>
@@ -3839,13 +3830,13 @@
         <v>4991</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M52" s="7">
         <v>7</v>
@@ -3854,13 +3845,13 @@
         <v>8630</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3866,13 @@
         <v>44186</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H53" s="7">
         <v>14</v>
@@ -3890,13 +3881,13 @@
         <v>15323</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M53" s="7">
         <v>38</v>
@@ -3905,13 +3896,13 @@
         <v>59509</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3917,13 @@
         <v>14421</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H54" s="7">
         <v>15</v>
@@ -3941,13 +3932,13 @@
         <v>14073</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M54" s="7">
         <v>28</v>
@@ -3956,13 +3947,13 @@
         <v>28495</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3968,13 @@
         <v>10419</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H55" s="7">
         <v>10</v>
@@ -3992,13 +3983,13 @@
         <v>7759</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M55" s="7">
         <v>17</v>
@@ -4007,13 +3998,13 @@
         <v>18178</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4019,13 @@
         <v>21771</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H56" s="7">
         <v>24</v>
@@ -4043,13 +4034,13 @@
         <v>20779</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M56" s="7">
         <v>42</v>
@@ -4058,13 +4049,13 @@
         <v>42549</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,7 +4111,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25F_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4025C564-3A00-4BAA-9CF7-465D08361075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE85111-9A31-42D6-BD01-76DA2FB79214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C15C3326-3D58-4C1F-B6AE-0C81CDC90B4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{467397A7-30EE-4871-95C3-B3426A0C7CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48FAD53-E3F8-4BE2-86B7-AC39D3C2AB8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658544CE-4BCE-4ABC-824C-60DD4E3B51D8}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25F_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE85111-9A31-42D6-BD01-76DA2FB79214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E12549E-C4AB-4A23-BAD7-E47F1E7759CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{467397A7-30EE-4871-95C3-B3426A0C7CFB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3290B326-3744-43D1-8496-EF80A59CF265}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="263">
   <si>
     <t>Población según el modo de empleo para el que utilizan los cigarrillos electrónicos en 2023 (Tasa respuesta: 1,51%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>69,59%</t>
+    <t>61,34%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>12,62%</t>
   </si>
   <si>
-    <t>61,31%</t>
+    <t>55,88%</t>
   </si>
   <si>
     <t>Por probar</t>
@@ -98,19 +98,19 @@
     <t>57,18%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>Para reducir el consumo del tabaco tradicional</t>
@@ -119,16 +119,16 @@
     <t>28,86%</t>
   </si>
   <si>
-    <t>77,25%</t>
+    <t>77,54%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>Para dejar de fumar</t>
@@ -155,7 +155,7 @@
     <t>9,61%</t>
   </si>
   <si>
-    <t>40,04%</t>
+    <t>39,49%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -167,22 +167,22 @@
     <t>12,08%</t>
   </si>
   <si>
-    <t>63,5%</t>
+    <t>63,84%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>12,46%</t>
+    <t>15,66%</t>
   </si>
   <si>
     <t>67,39%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -191,628 +191,637 @@
     <t>55,41%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>46,95%</t>
+    <t>49,94%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
     <t>41,73%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>38,33%</t>
+    <t>39,08%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
   </si>
   <si>
     <t>34,19%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>8,76%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>46,79%</t>
   </si>
   <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>23,05%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658544CE-4BCE-4ABC-824C-60DD4E3B51D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270C061-4484-4473-B5C9-B7EAF40132D0}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2787,7 +2796,7 @@
         <v>762</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
@@ -2802,13 +2811,13 @@
         <v>854</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2817,13 +2826,13 @@
         <v>1616</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,7 +2888,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2897,7 +2906,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2948,7 +2957,7 @@
         <v>14</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2957,7 +2966,7 @@
         <v>1352</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
@@ -2972,13 +2981,13 @@
         <v>1352</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,7 +3008,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3050,7 +3059,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3098,7 +3107,7 @@
         <v>35</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>37</v>
@@ -3110,7 +3119,7 @@
         <v>1603</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
@@ -3125,10 +3134,10 @@
         <v>2466</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>35</v>
@@ -3187,7 +3196,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3199,13 +3208,13 @@
         <v>2443</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -3214,13 +3223,13 @@
         <v>3857</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -3229,13 +3238,13 @@
         <v>6300</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3259,13 @@
         <v>13974</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -3265,13 +3274,13 @@
         <v>4931</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
@@ -3280,13 +3289,13 @@
         <v>18905</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3310,13 @@
         <v>2515</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3316,13 +3325,13 @@
         <v>3072</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
@@ -3331,13 +3340,13 @@
         <v>5587</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3361,13 @@
         <v>1272</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -3367,13 +3376,13 @@
         <v>3612</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -3382,13 +3391,13 @@
         <v>4884</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3412,13 @@
         <v>5522</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3418,13 +3427,13 @@
         <v>4128</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -3433,13 +3442,13 @@
         <v>9650</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,7 +3504,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3513,7 +3522,7 @@
         <v>14</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3528,7 +3537,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3543,7 +3552,7 @@
         <v>14</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3567,13 @@
         <v>5084</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3573,13 +3582,13 @@
         <v>3087</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
@@ -3588,13 +3597,13 @@
         <v>8171</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3618,13 @@
         <v>6506</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H48" s="7">
         <v>9</v>
@@ -3624,13 +3633,13 @@
         <v>8162</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M48" s="7">
         <v>14</v>
@@ -3639,13 +3648,13 @@
         <v>14668</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3669,13 @@
         <v>3152</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -3675,13 +3684,13 @@
         <v>3436</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M49" s="7">
         <v>6</v>
@@ -3690,13 +3699,13 @@
         <v>6589</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3720,13 @@
         <v>7658</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -3726,13 +3735,13 @@
         <v>4874</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="M50" s="7">
         <v>12</v>
@@ -3741,13 +3750,13 @@
         <v>12532</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3824,13 @@
         <v>3639</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H52" s="7">
         <v>4</v>
@@ -3830,13 +3839,13 @@
         <v>4991</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M52" s="7">
         <v>7</v>
@@ -3845,13 +3854,13 @@
         <v>8630</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3875,13 @@
         <v>44186</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H53" s="7">
         <v>14</v>
@@ -3881,13 +3890,13 @@
         <v>15323</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M53" s="7">
         <v>38</v>
@@ -3896,13 +3905,13 @@
         <v>59509</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3926,13 @@
         <v>14421</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H54" s="7">
         <v>15</v>
@@ -3932,13 +3941,13 @@
         <v>14073</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M54" s="7">
         <v>28</v>
@@ -3947,13 +3956,13 @@
         <v>28495</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3977,13 @@
         <v>10419</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H55" s="7">
         <v>10</v>
@@ -3983,13 +3992,13 @@
         <v>7759</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M55" s="7">
         <v>17</v>
@@ -3998,13 +4007,13 @@
         <v>18178</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4028,13 @@
         <v>21771</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H56" s="7">
         <v>24</v>
@@ -4034,13 +4043,13 @@
         <v>20779</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M56" s="7">
         <v>42</v>
@@ -4049,13 +4058,13 @@
         <v>42549</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,7 +4120,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25F_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E12549E-C4AB-4A23-BAD7-E47F1E7759CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5918D7AE-8114-41A3-A177-DDE587D5F435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3290B326-3744-43D1-8496-EF80A59CF265}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8C94F339-F4E0-4B75-A928-465934132210}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="259">
   <si>
     <t>Población según el modo de empleo para el que utilizan los cigarrillos electrónicos en 2023 (Tasa respuesta: 1,51%)</t>
   </si>
@@ -71,13 +71,13 @@
     <t>Otros</t>
   </si>
   <si>
-    <t>13,96%</t>
+    <t>10,94%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>61,34%</t>
+    <t>55,63%</t>
   </si>
   <si>
     <t>0%</t>
@@ -86,742 +86,730 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
   </si>
   <si>
     <t>Por probar</t>
   </si>
   <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>Para reducir el consumo del tabaco tradicional</t>
   </si>
   <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>Para dejar de fumar</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>Como sustituto del tabaco</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
     <t>28,86%</t>
   </si>
   <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>Para dejar de fumar</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>Como sustituto del tabaco</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>23,93%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270C061-4484-4473-B5C9-B7EAF40132D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57D86A7-9031-4F36-A686-E34002002229}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1357,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1196</v>
+        <v>1386</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1387,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1196</v>
+        <v>1386</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1408,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>4899</v>
+        <v>8175</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1438,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>4898</v>
+        <v>8175</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
@@ -1459,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>2472</v>
+        <v>3113</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -1489,37 +1477,37 @@
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>2472</v>
+        <v>3113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1549,13 +1537,13 @@
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1570,37 +1558,37 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>911</v>
+        <v>949</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>911</v>
+        <v>949</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,51 +1600,51 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>8567</v>
+        <v>12674</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>911</v>
+        <v>949</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>9478</v>
+        <v>13623</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1674,37 +1662,37 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,46 +1704,46 @@
         <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>16868</v>
+        <v>19406</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>16868</v>
+        <v>19405</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,17 +1755,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>2928</v>
+        <v>3339</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -1791,44 +1779,44 @@
         <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>2928</v>
+        <v>3339</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>3695</v>
+        <v>3961</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -1842,73 +1830,73 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>3695</v>
+        <v>3961</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1538</v>
+        <v>1477</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>4759</v>
+        <v>4365</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>6297</v>
+        <v>5841</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,51 +1908,51 @@
         <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>25029</v>
+        <v>28182</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>5413</v>
+        <v>4963</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>18</v>
       </c>
       <c r="N15" s="7">
-        <v>30442</v>
+        <v>33144</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1982,37 +1970,37 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,37 +2021,37 @@
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,58 +2072,58 @@
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>2300</v>
+        <v>2287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2150,73 +2138,73 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>2300</v>
+        <v>2288</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>3005</v>
+        <v>3194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1915</v>
+        <v>1785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>4920</v>
+        <v>4979</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,51 +2216,51 @@
         <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>5305</v>
+        <v>5481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>2596</v>
+        <v>2433</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
       </c>
       <c r="N21" s="7">
-        <v>7901</v>
+        <v>7915</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2290,37 +2278,37 @@
         <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,46 +2320,46 @@
         <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>2613</v>
+        <v>2711</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>4329</v>
+        <v>4005</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>6942</v>
+        <v>6715</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,43 +2380,43 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>1696</v>
+        <v>1551</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>1696</v>
+        <v>1551</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2443,88 +2431,88 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>710</v>
+        <v>666</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>710</v>
+        <v>666</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>2422</v>
+        <v>2499</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1735</v>
+        <v>1606</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>4156</v>
+        <v>4105</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,51 +2524,51 @@
         <v>3</v>
       </c>
       <c r="D27" s="7">
-        <v>5035</v>
+        <v>5210</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
       </c>
       <c r="I27" s="7">
-        <v>8470</v>
+        <v>7828</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
       </c>
       <c r="N27" s="7">
-        <v>13505</v>
+        <v>13037</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2604,31 +2592,31 @@
         <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,46 +2628,46 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>749</v>
+        <v>676</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>1625</v>
+        <v>1442</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>2374</v>
+        <v>2118</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,37 +2694,37 @@
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2766,73 +2754,73 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>854</v>
+        <v>790</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>1616</v>
+        <v>1483</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,51 +2832,51 @@
         <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>1511</v>
+        <v>1370</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
       </c>
       <c r="I33" s="7">
-        <v>3420</v>
+        <v>3093</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
       </c>
       <c r="N33" s="7">
-        <v>4931</v>
+        <v>4463</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2906,7 +2894,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2921,7 +2909,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2936,7 +2924,7 @@
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,37 +2945,37 @@
         <v>14</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>1352</v>
+        <v>1182</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>1352</v>
+        <v>1182</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,7 +2996,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3023,7 +3011,7 @@
         <v>14</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3038,13 +3026,13 @@
         <v>14</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3059,7 +3047,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3074,7 +3062,7 @@
         <v>14</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3089,58 +3077,58 @@
         <v>14</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>1603</v>
+        <v>1491</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
       </c>
       <c r="N38" s="7">
-        <v>2466</v>
+        <v>2336</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,51 +3140,51 @@
         <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
       </c>
       <c r="I39" s="7">
-        <v>2955</v>
+        <v>2673</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <v>4</v>
       </c>
       <c r="N39" s="7">
-        <v>3818</v>
+        <v>3518</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3205,46 +3193,46 @@
         <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>2443</v>
+        <v>2412</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>3857</v>
+        <v>3597</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
       </c>
       <c r="N40" s="7">
-        <v>6300</v>
+        <v>6009</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,46 +3244,46 @@
         <v>7</v>
       </c>
       <c r="D41" s="7">
-        <v>13974</v>
+        <v>15266</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
       </c>
       <c r="I41" s="7">
-        <v>4931</v>
+        <v>4851</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
       </c>
       <c r="N41" s="7">
-        <v>18905</v>
+        <v>20116</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,148 +3295,148 @@
         <v>3</v>
       </c>
       <c r="D42" s="7">
-        <v>2515</v>
+        <v>2474</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
       </c>
       <c r="I42" s="7">
-        <v>3072</v>
+        <v>2738</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
       </c>
       <c r="N42" s="7">
-        <v>5587</v>
+        <v>5212</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="7">
         <v>2</v>
       </c>
       <c r="D43" s="7">
-        <v>1272</v>
+        <v>1296</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
       </c>
       <c r="I43" s="7">
-        <v>3612</v>
+        <v>3295</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
       </c>
       <c r="N43" s="7">
-        <v>4884</v>
+        <v>4591</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="7">
         <v>4</v>
       </c>
       <c r="D44" s="7">
-        <v>5522</v>
+        <v>5678</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
       </c>
       <c r="I44" s="7">
-        <v>4128</v>
+        <v>3568</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
       </c>
       <c r="N44" s="7">
-        <v>9650</v>
+        <v>9246</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,51 +3448,51 @@
         <v>18</v>
       </c>
       <c r="D45" s="7">
-        <v>25726</v>
+        <v>27126</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45" s="7">
         <v>17</v>
       </c>
       <c r="I45" s="7">
-        <v>19600</v>
+        <v>18048</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M45" s="7">
         <v>35</v>
       </c>
       <c r="N45" s="7">
-        <v>45326</v>
+        <v>45174</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3522,7 +3510,7 @@
         <v>14</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3537,7 +3525,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3552,7 +3540,7 @@
         <v>14</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,46 +3552,46 @@
         <v>4</v>
       </c>
       <c r="D47" s="7">
-        <v>5084</v>
+        <v>4229</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
       </c>
       <c r="I47" s="7">
-        <v>3087</v>
+        <v>2338</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
       </c>
       <c r="N47" s="7">
-        <v>8171</v>
+        <v>6567</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,148 +3603,148 @@
         <v>5</v>
       </c>
       <c r="D48" s="7">
-        <v>6506</v>
+        <v>5435</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H48" s="7">
         <v>9</v>
       </c>
       <c r="I48" s="7">
-        <v>8162</v>
+        <v>6769</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M48" s="7">
+        <v>14</v>
+      </c>
+      <c r="N48" s="7">
+        <v>12204</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M48" s="7">
-        <v>14</v>
-      </c>
-      <c r="N48" s="7">
-        <v>14668</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="7">
         <v>2</v>
       </c>
       <c r="D49" s="7">
-        <v>3152</v>
+        <v>2760</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
       </c>
       <c r="I49" s="7">
-        <v>3436</v>
+        <v>2905</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M49" s="7">
         <v>6</v>
       </c>
       <c r="N49" s="7">
-        <v>6589</v>
+        <v>5665</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="7">
         <v>7</v>
       </c>
       <c r="D50" s="7">
-        <v>7658</v>
+        <v>6408</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
       </c>
       <c r="I50" s="7">
-        <v>4874</v>
+        <v>3990</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M50" s="7">
+        <v>12</v>
+      </c>
+      <c r="N50" s="7">
+        <v>10398</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M50" s="7">
-        <v>12</v>
-      </c>
-      <c r="N50" s="7">
-        <v>12532</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,46 +3756,46 @@
         <v>18</v>
       </c>
       <c r="D51" s="7">
-        <v>22400</v>
+        <v>18832</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51" s="7">
         <v>20</v>
       </c>
       <c r="I51" s="7">
-        <v>19559</v>
+        <v>16002</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M51" s="7">
         <v>38</v>
       </c>
       <c r="N51" s="7">
-        <v>41959</v>
+        <v>34834</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,46 +3809,46 @@
         <v>3</v>
       </c>
       <c r="D52" s="7">
-        <v>3639</v>
+        <v>3798</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H52" s="7">
         <v>4</v>
       </c>
       <c r="I52" s="7">
-        <v>4991</v>
+        <v>4631</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M52" s="7">
         <v>7</v>
       </c>
       <c r="N52" s="7">
-        <v>8630</v>
+        <v>8429</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,46 +3860,46 @@
         <v>24</v>
       </c>
       <c r="D53" s="7">
-        <v>44186</v>
+        <v>50461</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53" s="7">
+        <v>14</v>
+      </c>
+      <c r="I53" s="7">
+        <v>13818</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H53" s="7">
-        <v>14</v>
-      </c>
-      <c r="I53" s="7">
-        <v>15323</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M53" s="7">
         <v>38</v>
       </c>
       <c r="N53" s="7">
-        <v>59509</v>
+        <v>64279</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,148 +3911,148 @@
         <v>13</v>
       </c>
       <c r="D54" s="7">
-        <v>14421</v>
+        <v>14362</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H54" s="7">
         <v>15</v>
       </c>
       <c r="I54" s="7">
-        <v>14073</v>
+        <v>12130</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M54" s="7">
         <v>28</v>
       </c>
       <c r="N54" s="7">
-        <v>28495</v>
+        <v>26492</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="7">
         <v>7</v>
       </c>
       <c r="D55" s="7">
-        <v>10419</v>
+        <v>10304</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H55" s="7">
         <v>10</v>
       </c>
       <c r="I55" s="7">
-        <v>7759</v>
+        <v>6866</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M55" s="7">
         <v>17</v>
       </c>
       <c r="N55" s="7">
-        <v>18178</v>
+        <v>17170</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="7">
         <v>18</v>
       </c>
       <c r="D56" s="7">
-        <v>21771</v>
+        <v>20793</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H56" s="7">
         <v>24</v>
       </c>
       <c r="I56" s="7">
-        <v>20779</v>
+        <v>18544</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M56" s="7">
         <v>42</v>
       </c>
       <c r="N56" s="7">
-        <v>42549</v>
+        <v>39337</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,51 +4064,51 @@
         <v>65</v>
       </c>
       <c r="D57" s="7">
-        <v>94436</v>
+        <v>99719</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H57" s="7">
         <v>67</v>
       </c>
       <c r="I57" s="7">
-        <v>62925</v>
+        <v>55989</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M57" s="7">
         <v>132</v>
       </c>
       <c r="N57" s="7">
-        <v>157361</v>
+        <v>155708</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
